--- a/Documents/SQL Tables.xlsx
+++ b/Documents/SQL Tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\GitHub\AndroidMessanger\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb140330\Documents\GitHub\AndroidMessanger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Account Credentials</t>
   </si>
@@ -93,12 +93,30 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>efdwefws</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>sefwsfsfzws</t>
+  </si>
+  <si>
+    <t>Timmy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:I19"/>
+  <dimension ref="C5:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +621,35 @@
         <v>33158</v>
       </c>
     </row>
+    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>